--- a/output/ITAÚ_28075485000100.xlsx
+++ b/output/ITAÚ_28075485000100.xlsx
@@ -823,10 +823,10 @@
         <v>44165</v>
       </c>
       <c r="B40">
-        <v>0.5667103</v>
+        <v>0.5674093</v>
       </c>
       <c r="C40">
-        <v>-0.004896218859147372</v>
+        <v>-0.004452245558520307</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_28075485000100.xlsx
+++ b/output/ITAÚ_28075485000100.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ PERSONNALITÉ HEDGE PLUS MULTIMERCADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43008</v>
       </c>
@@ -411,422 +405,308 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43039</v>
       </c>
       <c r="B3">
         <v>-0.001382300000000058</v>
       </c>
-      <c r="C3">
-        <v>-0.001382300000000058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43069</v>
       </c>
       <c r="B4">
-        <v>0.0002959000000000156</v>
-      </c>
-      <c r="C4">
         <v>0.001680522986925004</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43100</v>
       </c>
       <c r="B5">
-        <v>0.005829199999999979</v>
-      </c>
-      <c r="C5">
         <v>0.005531663180864843</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43131</v>
       </c>
       <c r="B6">
-        <v>0.02925920000000004</v>
-      </c>
-      <c r="C6">
         <v>0.02329421337141535</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43159</v>
       </c>
       <c r="B7">
-        <v>0.04079800000000011</v>
-      </c>
-      <c r="C7">
         <v>0.01121078150188026</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43190</v>
       </c>
       <c r="B8">
-        <v>0.05209989999999998</v>
-      </c>
-      <c r="C8">
         <v>0.01085887943673969</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43220</v>
       </c>
       <c r="B9">
-        <v>0.05588189999999993</v>
-      </c>
-      <c r="C9">
         <v>0.003594715672912807</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43251</v>
       </c>
       <c r="B10">
-        <v>0.07652809999999999</v>
-      </c>
-      <c r="C10">
         <v>0.0195535125661308</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43281</v>
       </c>
       <c r="B11">
-        <v>0.1235832000000001</v>
-      </c>
-      <c r="C11">
         <v>0.04371005271483397</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43312</v>
       </c>
       <c r="B12">
-        <v>0.1164198999999999</v>
-      </c>
-      <c r="C12">
         <v>-0.00637540682345572</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43343</v>
       </c>
       <c r="B13">
-        <v>0.1284021</v>
-      </c>
-      <c r="C13">
         <v>0.01073270012474703</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43373</v>
       </c>
       <c r="B14">
-        <v>0.1235312</v>
-      </c>
-      <c r="C14">
         <v>-0.004316635000945146</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43404</v>
       </c>
       <c r="B15">
-        <v>0.1587393000000001</v>
-      </c>
-      <c r="C15">
         <v>0.03133700247932603</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43434</v>
       </c>
       <c r="B16">
-        <v>0.1514218000000001</v>
-      </c>
-      <c r="C16">
         <v>-0.006315052920014108</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43465</v>
       </c>
       <c r="B17">
-        <v>0.1660603999999999</v>
-      </c>
-      <c r="C17">
         <v>0.01271349908434938</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43496</v>
       </c>
       <c r="B18">
-        <v>0.1856567</v>
-      </c>
-      <c r="C18">
         <v>0.01680556170160674</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43524</v>
       </c>
       <c r="B19">
-        <v>0.1708862999999998</v>
-      </c>
-      <c r="C19">
         <v>-0.01245756887301375</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43555</v>
       </c>
       <c r="B20">
-        <v>0.1785291</v>
-      </c>
-      <c r="C20">
         <v>0.00652736307530466</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43585</v>
       </c>
       <c r="B21">
-        <v>0.1847641</v>
-      </c>
-      <c r="C21">
         <v>0.005290493039162181</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43616</v>
       </c>
       <c r="B22">
-        <v>0.1931845999999999</v>
-      </c>
-      <c r="C22">
         <v>0.007107322039889619</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43646</v>
       </c>
       <c r="B23">
-        <v>0.2293162</v>
-      </c>
-      <c r="C23">
         <v>0.03028165130525484</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43677</v>
       </c>
       <c r="B24">
-        <v>0.2380658</v>
-      </c>
-      <c r="C24">
         <v>0.00711745277577891</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43708</v>
       </c>
       <c r="B25">
-        <v>0.2620072</v>
-      </c>
-      <c r="C25">
         <v>0.01933774440744584</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43738</v>
       </c>
       <c r="B26">
-        <v>0.257172</v>
-      </c>
-      <c r="C26">
         <v>-0.003831356905095396</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43769</v>
       </c>
       <c r="B27">
-        <v>0.2802084</v>
-      </c>
-      <c r="C27">
         <v>0.0183239843076366</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43799</v>
       </c>
       <c r="B28">
-        <v>0.3018888</v>
-      </c>
-      <c r="C28">
         <v>0.01693505526131522</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43830</v>
       </c>
       <c r="B29">
-        <v>0.3377564</v>
-      </c>
-      <c r="C29">
         <v>0.02755043287875281</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43861</v>
       </c>
       <c r="B30">
-        <v>0.3476575</v>
-      </c>
-      <c r="C30">
         <v>0.007401272757880273</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
       <c r="B31">
-        <v>0.3653337999999999</v>
-      </c>
-      <c r="C31">
         <v>0.01311631479066455</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
       <c r="B32">
-        <v>0.4983230000000001</v>
-      </c>
-      <c r="C32">
         <v>0.09740416592631052</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43951</v>
       </c>
       <c r="B33">
-        <v>0.5214359</v>
-      </c>
-      <c r="C33">
         <v>0.01542584609593511</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43982</v>
       </c>
       <c r="B34">
-        <v>0.5212756999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.0001052952674509555</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44012</v>
       </c>
       <c r="B35">
-        <v>0.5518546</v>
-      </c>
-      <c r="C35">
         <v>0.02010082722020745</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44043</v>
       </c>
       <c r="B36">
-        <v>0.5614553</v>
-      </c>
-      <c r="C36">
         <v>0.006186597636144597</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44074</v>
       </c>
       <c r="B37">
-        <v>0.5844895999999999</v>
-      </c>
-      <c r="C37">
         <v>0.01475181518164503</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44104</v>
       </c>
       <c r="B38">
-        <v>0.5659819000000001</v>
-      </c>
-      <c r="C38">
         <v>-0.01168054369053595</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44135</v>
       </c>
       <c r="B39">
-        <v>0.574419</v>
-      </c>
-      <c r="C39">
         <v>0.005387737878707277</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44165</v>
       </c>
       <c r="B40">
-        <v>0.5674093</v>
-      </c>
-      <c r="C40">
-        <v>-0.004452245558520307</v>
+        <v>-0.004492133288533817</v>
       </c>
     </row>
   </sheetData>
